--- a/notice_and_meeting/datas/case_data.xlsx
+++ b/notice_and_meeting/datas/case_data.xlsx
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
